--- a/Game data.xlsx
+++ b/Game data.xlsx
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Game data.xlsx
+++ b/Game data.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -818,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1739,7 +1740,7 @@
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
+  <dataConsolidate link="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
